--- a/data/trans_camb/P17A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P17A_R-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-9,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>-7,61</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 16,33</t>
+          <t>-8,48; -2,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 7,68</t>
+          <t>-11,7; -6,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 9,68</t>
+          <t>-9,53; -5,62</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>-70,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>-75,9%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,7%</t>
+          <t>-73,81%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 223,1</t>
+          <t>-87,14; -24,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 70,35</t>
+          <t>-85,52; -61,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 97,34</t>
+          <t>-83,05; -57,43</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>-10,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-7,65</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 6,73</t>
+          <t>-8,02; -2,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,81</t>
+          <t>-13,58; -7,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,0</t>
+          <t>-9,88; -5,71</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>-75,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,71%</t>
+          <t>-83,4%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>-80,6%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 131,4</t>
+          <t>-90,23; -43,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,65; 52,29</t>
+          <t>-91,65; -70,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 45,96</t>
+          <t>-89,05; -69,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,73</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-8,15</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 5,55</t>
+          <t>-13,54; -2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 24,86</t>
+          <t>-14,82; -3,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 10,05</t>
+          <t>-12,63; -4,22</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-61,67%</t>
+          <t>-90,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>-72,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,03%</t>
+          <t>-79,79%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 271,13</t>
+          <t>-100,0; -32,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,44; 268,86</t>
+          <t>-95,41; -14,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-73,71; 132,19</t>
+          <t>-95,07; -47,27</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-7,68</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,87</t>
+          <t>-7,48; -3,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,97</t>
+          <t>-11,61; -7,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,26</t>
+          <t>-8,95; -6,19</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>-74,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>-78,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>-77,06%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,32; 127,15</t>
+          <t>-85,48; -51,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 43,62</t>
+          <t>-85,39; -69,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 55,71</t>
+          <t>-82,76; -67,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P17A_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P17A_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,94</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-9,14</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,61</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.509782236154409</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.089930543607061</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.736388465347992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,48; -2,45</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; -6,56</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,53; -5,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.252086309758361</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.628341547312449</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.834816034683654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-70,59%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-75,9%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-73,81%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.96360361261821</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.488631730426041</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.728774321340559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-87,14; -24,76</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-85,52; -61,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-83,05; -57,43</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.5355506962279393</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.090535687993322</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.2655517300066165</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-10,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-7,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3555823435427641</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3556612345713376</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1694470745732187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,02; -2,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; -7,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; -5,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.170929632828554</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6833620402767197</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9884495139239741</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-75,02%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-83,4%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-80,6%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.3891132216711335</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.671520672050399</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.8396763938782636</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-90,23; -43,58</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-91,65; -70,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-89,05; -69,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.234403352416262</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.701400291366402</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.702587220043367</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-9,02</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-8,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.501742204450797</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.868565068298717</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.10623212339812</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; -2,86</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; -3,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,63; -4,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.06079532677511774</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1334514760092012</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0885079680023413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-90,66%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-72,56%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-79,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.6021659377826442</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.5888364188771585</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4687023065029332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -32,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-95,41; -14,89</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-95,07; -47,27</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.29420596546444</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.5145725053783174</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4721642596030669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-5,65</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-9,63</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-7,68</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.99188141191186</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>3.522864645831347</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.31353965769601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; -3,6</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,61; -7,8</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; -6,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-10.83579261036816</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.377861360779859</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.474263249155072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-74,68%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-78,47%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-77,06%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>5.470921688579117</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>22.99808334599462</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>10.16010175109716</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-85,48; -51,78</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-85,39; -69,98</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-82,76; -67,98</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.6207950096190171</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.283277279170574</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1285417988334123</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.7140133470946214</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.7588965974661601</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.628805754229067</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.298297914269031</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>1.104949187466185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.470841809213153</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3420981341360443</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.8762043583506505</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.527817028296884</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.555804583139727</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.891505959141944</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.071587635819863</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.175694318358618</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.942246668258603</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.1944717949233556</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.02787156332854039</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.08787649070766203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3236713905270266</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2824610472528405</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1824978363649076</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.309290405918174</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.4422178485391084</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.5314535975026015</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
